--- a/50item_tests/result.xlsx
+++ b/50item_tests/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rard6\Documents\修士\実験\50item_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A69D6E77-7ED5-43AD-A8A3-E8B042C26C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430CB6BB-88EF-41B8-9754-1A21E4EF62B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{061DB0AC-AD97-43FD-9C89-F96E4D702DD5}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{061DB0AC-AD97-43FD-9C89-F96E4D702DD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>drone3</t>
     <phoneticPr fontId="1"/>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,21 +122,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,357 +476,820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F3A5BA-311F-47B7-B972-D184C7D3958F}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I1" sqref="I1:O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
         <v>103.813</v>
       </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>189.768</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="I3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>102.431</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>185.511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>99.142700000000005</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>171.12700000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>99.142700000000005</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5">
+        <v>170.751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
         <v>129.07400000000001</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
         <v>191.154</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>131.72200000000001</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>193.93600000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
         <v>121.212</v>
       </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
         <v>195.80600000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1">
+        <v>127.383</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <v>192.321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>67.322500000000005</v>
       </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>118.755</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>70.169700000000006</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>118.822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>68.336399999999998</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
         <v>112.404</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>64.340100000000007</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>114.544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
         <v>92.536799999999999</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
         <v>146.67500000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>93.981399999999994</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>135.70400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>87.959400000000002</v>
       </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
         <v>123.142</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1">
+        <v>88.834500000000006</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>127.59099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
         <v>45.294400000000003</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>90.408699999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>44.503599999999999</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>83.051900000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
         <v>42.358400000000003</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>86.751999999999995</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>41.339399999999998</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <v>81.022900000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>70.277199999999993</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="G15" s="1">
         <v>106.917</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>60.747900000000001</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>103.98699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
         <v>57.9604</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
         <v>93.459000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="18" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1">
+        <v>55.814</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>93.001800000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
         <v>39.009300000000003</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>62.9497</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="I18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>39.193800000000003</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>59.286000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
         <v>31.4587</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
         <v>65.510800000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>32.317900000000002</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>61.983499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
         <v>49.398899999999998</v>
       </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
         <v>85.733199999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>46.428600000000003</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>83.030100000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
         <v>41.994300000000003</v>
       </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+      <c r="G21" s="1">
         <v>67.9666</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>32.317900000000002</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>70.220399999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
         <v>26.6463</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>47.918900000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24">
+      <c r="I23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <v>28.568300000000001</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>48.821100000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
         <v>30.4115</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
         <v>55.355200000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>26.6463</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <v>45.710299999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
         <v>32.016399999999997</v>
       </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
         <v>73.642300000000006</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
+        <v>2</v>
+      </c>
+      <c r="K25" s="1">
+        <v>33.441600000000001</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>66.6858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>44.661700000000003</v>
       </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
         <v>50.703099999999999</v>
       </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+      <c r="K26" s="4">
+        <v>44.661700000000003</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>52.53</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
